--- a/1.데이터/20230323 택배 송장 엑셀 데이터.xlsx
+++ b/1.데이터/20230323 택배 송장 엑셀 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkfrk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b86e0240f950f8de/바탕 화면/2023-1-SCS4031-senior/1.데이터/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{84F4CFF0-9C63-47B6-8123-2892DB5BD0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B444F3-4328-40E4-91FE-D12E07E6B046}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{84F4CFF0-9C63-47B6-8123-2892DB5BD0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894DD6FC-45CB-42F3-9ECF-6B7CF4214D03}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{238413DD-723B-4756-A6E5-DB2CEC733B77}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{238413DD-723B-4756-A6E5-DB2CEC733B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신흥로22번길5-30(의정부동) 의정부역코아루퍼스트원2012호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>의정부동499-6의정부역 코아루 퍼스트원 1502호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,10 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신흐로232번길5-30(의정부동,신한헤스티아) 1415호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>의정부2동494센트럴타워 1307호 ㈜Orum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,7 +832,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신민로 80 (의정부동, 센트럴타워)센트럴타워빌딩 3층 경륜장 사무실</t>
+    <t>시민로 80 (의정부동, 센트럴타워)센트럴타워빌딩 3층 경륜장 사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신흥로232번길5-30(의정부동,신한헤스티아) 1415호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신흥로232번길5-30(의정부동) 의정부역코아루퍼스트원2012호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +848,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,8 +911,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1210,11 +1214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E37920-52BA-4408-9D6B-4C652795BDA9}">
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="76.75" style="1" bestFit="1" customWidth="1"/>
@@ -1222,7 +1226,7 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1747,7 +1751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2682,7 +2686,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3067,7 +3071,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3122,705 +3126,705 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="C174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C237" s="1">
         <v>236</v>
